--- a/data/trans_dic/P44_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +681,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,46; 56,91</t>
+          <t>4,5; 12,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,03; 62,69</t>
+          <t>3,37; 12,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,28</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,9; 71,68</t>
+          <t>0,0; 7,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,82; 58,89</t>
+          <t>5,86; 14,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 54,28</t>
+          <t>2,58; 10,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 57,5</t>
+          <t>2,1; 8,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,57; 58,62</t>
+          <t>1,4; 6,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,78; 53,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,67; 42,7</t>
+          <t>5,98; 11,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 37,62</t>
+          <t>3,84; 10,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 4,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,34</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,21%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,51%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,65; 63,56</t>
+          <t>5,4; 22,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 51,05</t>
+          <t>3,81; 11,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,37; 61,31</t>
+          <t>3,67; 13,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 69,08</t>
+          <t>3,42; 11,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,45; 47,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,14; 50,81</t>
+          <t>5,86; 13,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 54,35</t>
+          <t>8,22; 17,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,4; 47,84</t>
+          <t>5,49; 12,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,94; 49,99</t>
+          <t>4,58; 12,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,41; 47,76</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,21; 52,33</t>
+          <t>6,68; 14,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 50,27</t>
+          <t>7,14; 13,32</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 11,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 10,14</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,41%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,05; 72,36</t>
+          <t>6,16; 16,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 62,14</t>
+          <t>3,34; 12,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 48,01</t>
+          <t>1,07; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 42,23</t>
+          <t>0,95; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,35; 44,33</t>
+          <t>0,0; 3,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 37,71</t>
+          <t>5,71; 11,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 35,03</t>
+          <t>3,47; 9,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,69</t>
+          <t>2,32; 6,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,65; 52,46</t>
+          <t>2,09; 5,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,71; 43,59</t>
+          <t>0,59; 4,2</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,23; 35,07</t>
+          <t>6,83; 12,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 32,91</t>
+          <t>3,99; 9,45</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 5,33</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 4,57</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,71</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,94; 47,45</t>
+          <t>3,18; 8,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 47,66</t>
+          <t>1,92; 6,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 41,15</t>
+          <t>0,93; 3,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 53,02</t>
+          <t>1,15; 7,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,93; 41,82</t>
+          <t>0,99; 6,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 28,25</t>
+          <t>5,66; 12,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 29,38</t>
+          <t>2,29; 6,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 31,94</t>
+          <t>1,95; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 40,6</t>
+          <t>2,12; 6,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,82; 29,82</t>
+          <t>1,71; 5,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,9; 29,97</t>
+          <t>4,85; 8,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,39; 34,65</t>
+          <t>2,55; 5,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 5,47</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 5,14</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 34,46</t>
+          <t>2,25; 7,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 29,71</t>
+          <t>1,25; 5,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 20,85</t>
+          <t>0,37; 3,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 31,21</t>
+          <t>0,94; 4,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,06; 38,53</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 39,12</t>
+          <t>2,56; 8,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 23,97</t>
+          <t>2,27; 8,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 19,16</t>
+          <t>0,38; 3,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,42; 31,23</t>
+          <t>0,34; 3,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 28,27</t>
+          <t>0,4; 4,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 19,4</t>
+          <t>3,02; 6,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 20,67</t>
+          <t>2,15; 6,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 2,8</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,05</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 2,97</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>75,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>75,36%</t>
-        </is>
-      </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>62,11%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1619,72 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 3,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,28</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,68</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,45</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,47; 46,96</t>
+          <t>4,97; 8,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 40,4</t>
+          <t>3,63; 6,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,85; 36,09</t>
+          <t>1,78; 3,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,67; 41,1</t>
+          <t>1,84; 4,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,7; 40,13</t>
+          <t>0,62; 2,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,95; 33,72</t>
+          <t>5,56; 8,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,18; 32,06</t>
+          <t>3,96; 6,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,3; 29,8</t>
+          <t>2,75; 4,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,41; 40,95</t>
+          <t>2,44; 4,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,93</t>
+          <t>0,84; 2,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,47; 31,07</t>
+          <t>5,64; 7,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,9; 31,24</t>
+          <t>4,06; 5,89</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 3,91</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 3,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 1,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39129</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33772</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2730</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10615</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>44295</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27615</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23111</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17026</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>83423</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61387</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25840</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17026</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10615</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23065; 65025</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16902; 62074</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12671</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 36733</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27112; 68558</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12103; 51024</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10822; 42901</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7193; 34953</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>58328; 115427</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37296; 99076</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12219; 47304</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7169; 34224</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 37273</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55381</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42015</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40062</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37109</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48551</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65194</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>43735</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40229</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>103932</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>107208</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>83796</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>77337</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30398; 125250</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>21824; 67395</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20661; 76204</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20271; 68845</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>30393; 72031</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42672; 91559</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27884; 65982</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23711; 62959</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16860</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>72320; 160502</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>77945; 145528</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>57065; 118460</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>52495; 112500</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15954</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>68544</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45618</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18917</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16118</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6587</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>58196</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41331</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28687</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25041</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13055</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>126740</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>86950</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>47604</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>41159</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>19642</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41607; 108954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22923; 84210</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7281; 40038</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6436; 35479</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21554</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39639; 79108</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24734; 65424</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16654; 45653</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14906; 41019</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4219; 30124</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>93545; 172982</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55779; 132233</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29395; 74502</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25461; 63647</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>8113; 37751</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32676</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>25564</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13946</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18620</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18201</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>58878</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27260</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26359</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24587</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22899</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>91555</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52824</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>40305</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>43208</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20278; 52512</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12401; 41620</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5979; 25726</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7319; 49803</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6512; 40916</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>39833; 85823</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15725; 47633</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13147; 47636</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13967; 41985</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11256; 38567</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65072; 119549</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34054; 77700</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>26145; 67497</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>27494; 71111</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>24320; 67727</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22478</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14668</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11511</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23889</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23274</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7510</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6287</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8326</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>46367</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>37941</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>14838</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17798</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>12410</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11508; 40296</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6168; 27772</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1876; 17725</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4641; 21656</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13365</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12854; 40502</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11577; 42013</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1899; 18817</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1733; 17502</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2071; 23843</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30605; 70038</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21580; 60262</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>7211; 28202</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>8781; 30751</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4083; 30032</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7878</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7878</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3177</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>10410</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 19193</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 42951</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 55914</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 48440</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 39380</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16148</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 45025</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 42236</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>218208</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>164814</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>90636</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>93768</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>39487</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>241687</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>184674</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>129401</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>113170</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>47318</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>459895</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>349487</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>220037</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>206938</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>86805</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>171338; 288044</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>125086; 230098</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>61428; 135945</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>63275; 143509</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21366; 72224</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>200569; 293711</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>142899; 232218</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>99359; 169864</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>88046; 145563</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30321; 75228</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>397823; 548094</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>286894; 415755</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>177307; 275681</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>163306; 259234</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>59795; 122693</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>